--- a/Hardware/BOM/Master_parts_list.xlsx
+++ b/Hardware/BOM/Master_parts_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\egend\Documents\GitHub\3-axis-ROS-sensor-head\Hardware\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418037B1-838E-4A1F-AB61-EA2FC46D9044}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAEC2497-51FA-4754-B613-DE705F733E47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>FM</t>
-  </si>
-  <si>
-    <t>The cost information contained in this document is of a budgetary and planning nature and is intended for informational purposes only.  It does not constitute a commitment on the part of JPL and/or Caltech.</t>
   </si>
   <si>
     <t>Total</t>
@@ -252,6 +249,9 @@
   </si>
   <si>
     <t>Hardware</t>
+  </si>
+  <si>
+    <t>The cost information contained in this document is of a budgetary and planning nature and is intended for informational purposes only.</t>
   </si>
 </sst>
 </file>
@@ -974,13 +974,19 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -999,14 +1005,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1294,7 +1294,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M13" sqref="M13"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.26953125" defaultRowHeight="15" customHeight="1"/>
@@ -1317,35 +1317,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="103" customFormat="1" ht="32.9" customHeight="1">
-      <c r="A1" s="144" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="145"/>
-      <c r="C1" s="145"/>
-      <c r="D1" s="145"/>
-      <c r="E1" s="145"/>
-      <c r="F1" s="145"/>
-      <c r="G1" s="145"/>
-      <c r="H1" s="145"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="147"/>
-      <c r="K1" s="147"/>
-      <c r="L1" s="145"/>
+      <c r="A1" s="153" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" s="147"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="147"/>
+      <c r="I1" s="148"/>
+      <c r="J1" s="149"/>
+      <c r="K1" s="149"/>
+      <c r="L1" s="147"/>
     </row>
     <row r="2" spans="1:27" s="105" customFormat="1" ht="27.65" customHeight="1">
-      <c r="A2" s="148" t="s">
-        <v>39</v>
-      </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
+      <c r="A2" s="150" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="151"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
       <c r="G2" s="108"/>
       <c r="H2" s="108"/>
       <c r="I2" s="108"/>
       <c r="J2" s="110" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K2" s="111">
         <f>SUM(K5:K139)</f>
@@ -1354,14 +1354,14 @@
       <c r="L2" s="108"/>
     </row>
     <row r="3" spans="1:27" s="105" customFormat="1" ht="27" customHeight="1">
-      <c r="A3" s="150" t="s">
-        <v>40</v>
-      </c>
-      <c r="B3" s="150"/>
-      <c r="C3" s="150"/>
-      <c r="D3" s="150"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="150"/>
+      <c r="A3" s="152" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="152"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
       <c r="G3" s="106"/>
       <c r="H3" s="106"/>
       <c r="I3" s="107"/>
@@ -1372,10 +1372,10 @@
         <v>0</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>1</v>
@@ -1422,13 +1422,13 @@
     </row>
     <row r="5" spans="1:27" ht="14.25" customHeight="1">
       <c r="A5" s="47" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="48" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D5" s="48">
         <v>1</v>
@@ -1441,7 +1441,7 @@
       <c r="J5" s="52"/>
       <c r="K5" s="52"/>
       <c r="L5" s="53"/>
-      <c r="M5" s="151"/>
+      <c r="M5" s="142"/>
       <c r="N5" s="7"/>
       <c r="Y5" s="8"/>
       <c r="Z5" s="8"/>
@@ -1449,10 +1449,10 @@
     </row>
     <row r="6" spans="1:27" ht="14.25" customHeight="1">
       <c r="A6" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="34">
         <v>1</v>
@@ -1461,7 +1461,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F6" s="34"/>
       <c r="G6" s="38"/>
@@ -1475,15 +1475,15 @@
         <v>12</v>
       </c>
       <c r="L6" s="23"/>
-      <c r="M6" s="152"/>
-      <c r="N6" s="142"/>
+      <c r="M6" s="143"/>
+      <c r="N6" s="145"/>
     </row>
     <row r="7" spans="1:27" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A7" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="34">
         <v>1</v>
@@ -1492,7 +1492,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F7" s="34"/>
       <c r="G7" s="38"/>
@@ -1506,15 +1506,15 @@
         <v>6</v>
       </c>
       <c r="L7" s="23"/>
-      <c r="M7" s="152"/>
-      <c r="N7" s="142"/>
+      <c r="M7" s="143"/>
+      <c r="N7" s="145"/>
     </row>
     <row r="8" spans="1:27" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A8" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="34">
         <v>1</v>
@@ -1523,7 +1523,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F8" s="34"/>
       <c r="G8" s="38"/>
@@ -1537,24 +1537,24 @@
         <v>1</v>
       </c>
       <c r="L8" s="23"/>
-      <c r="M8" s="152"/>
-      <c r="N8" s="142"/>
+      <c r="M8" s="143"/>
+      <c r="N8" s="145"/>
     </row>
     <row r="9" spans="1:27" ht="14" customHeight="1">
       <c r="A9" s="56" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="57">
         <v>2</v>
       </c>
       <c r="C9" s="57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="57">
         <v>6</v>
       </c>
       <c r="E9" s="57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F9">
         <v>535198</v>
@@ -1573,29 +1573,29 @@
         <v>17.34</v>
       </c>
       <c r="L9" s="61" t="s">
-        <v>51</v>
-      </c>
-      <c r="M9" s="153"/>
-      <c r="N9" s="143"/>
+        <v>50</v>
+      </c>
+      <c r="M9" s="144"/>
+      <c r="N9" s="146"/>
       <c r="Y9" s="9"/>
       <c r="Z9" s="9"/>
       <c r="AA9" s="9"/>
     </row>
     <row r="10" spans="1:27" ht="14" customHeight="1">
       <c r="A10" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="34">
         <v>1</v>
       </c>
       <c r="C10" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10" s="34">
         <v>2</v>
       </c>
       <c r="E10" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F10" s="34"/>
       <c r="G10" s="38"/>
@@ -1612,25 +1612,25 @@
         <v>99.8</v>
       </c>
       <c r="L10" s="23" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M10" s="8"/>
     </row>
     <row r="11" spans="1:27" s="32" customFormat="1" ht="14.25" customHeight="1">
       <c r="A11" s="56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="57">
         <v>2</v>
       </c>
       <c r="C11" s="57" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D11" s="57">
         <v>2</v>
       </c>
       <c r="E11" s="57" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F11" s="140">
         <v>615406</v>
@@ -1649,7 +1649,7 @@
         <v>11.98</v>
       </c>
       <c r="L11" s="63" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="M11" s="31"/>
       <c r="Y11" s="33"/>
@@ -1658,19 +1658,19 @@
     </row>
     <row r="12" spans="1:27" ht="14.5">
       <c r="A12" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B12" s="34">
         <v>1</v>
       </c>
       <c r="C12" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D12" s="34">
         <v>1</v>
       </c>
       <c r="E12" s="36" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F12" s="130">
         <v>634068</v>
@@ -1693,19 +1693,19 @@
     </row>
     <row r="13" spans="1:27" ht="14.5">
       <c r="A13" s="17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B13" s="34">
         <v>4</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D13" s="34">
         <v>4</v>
       </c>
       <c r="E13" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" s="34"/>
       <c r="G13" s="38"/>
@@ -1718,19 +1718,19 @@
     </row>
     <row r="14" spans="1:27" s="112" customFormat="1" ht="14.5">
       <c r="A14" s="17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B14" s="34">
         <v>3</v>
       </c>
       <c r="C14" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D14" s="34">
         <v>3</v>
       </c>
       <c r="E14" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F14" s="34"/>
       <c r="G14" s="38"/>
@@ -1743,19 +1743,19 @@
     </row>
     <row r="15" spans="1:27" ht="14.5">
       <c r="A15" s="17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B15" s="36">
         <v>3</v>
       </c>
       <c r="C15" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D15" s="36">
         <v>3</v>
       </c>
       <c r="E15" s="36" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15" s="36"/>
       <c r="G15" s="41"/>
@@ -1771,19 +1771,19 @@
     </row>
     <row r="16" spans="1:27" ht="14.5">
       <c r="A16" s="17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B16" s="34">
         <v>4</v>
       </c>
       <c r="C16" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D16" s="34">
         <v>4</v>
       </c>
       <c r="E16" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F16" s="34"/>
       <c r="G16" s="38"/>
@@ -1807,7 +1807,7 @@
     </row>
     <row r="18" spans="1:27" ht="14.25" customHeight="1">
       <c r="A18" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B18" s="34"/>
       <c r="C18" s="34"/>
@@ -1826,10 +1826,10 @@
     </row>
     <row r="19" spans="1:27" ht="14.25" customHeight="1">
       <c r="A19" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C19" s="34">
         <v>1</v>
@@ -1838,7 +1838,7 @@
         <v>1</v>
       </c>
       <c r="E19" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" s="34"/>
       <c r="G19" s="38"/>
@@ -1856,10 +1856,10 @@
     </row>
     <row r="20" spans="1:27" ht="14.25" customHeight="1">
       <c r="A20" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B20" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C20" s="34">
         <v>2</v>
@@ -1868,7 +1868,7 @@
         <v>2</v>
       </c>
       <c r="E20" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20" s="34"/>
       <c r="G20" s="38"/>
@@ -1886,10 +1886,10 @@
     </row>
     <row r="21" spans="1:27" ht="14.25" customHeight="1">
       <c r="A21" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C21" s="36">
         <v>1</v>
@@ -1898,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="E21" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F21" s="36"/>
       <c r="G21" s="39"/>
@@ -1916,10 +1916,10 @@
     </row>
     <row r="22" spans="1:27" ht="14.25" customHeight="1">
       <c r="A22" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C22" s="34">
         <v>2</v>
@@ -1928,7 +1928,7 @@
         <v>4</v>
       </c>
       <c r="E22" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="38"/>
@@ -1946,22 +1946,22 @@
     </row>
     <row r="23" spans="1:27" ht="14.25" customHeight="1">
       <c r="A23" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" s="34">
         <v>1</v>
       </c>
       <c r="C23" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D23" s="34">
         <v>1</v>
       </c>
       <c r="E23" s="34" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F23" s="139" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G23" s="38"/>
       <c r="H23" s="135">
@@ -1977,13 +1977,13 @@
         <v>229.9</v>
       </c>
       <c r="L23" s="23" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M23" s="8"/>
     </row>
     <row r="24" spans="1:27" ht="14.25" customHeight="1">
       <c r="A24" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B24" s="36">
         <v>2</v>
@@ -1993,7 +1993,7 @@
         <v>4</v>
       </c>
       <c r="E24" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F24" s="132">
         <v>545412</v>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="25" spans="1:27" ht="14.25" customHeight="1">
       <c r="A25" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="34">
         <v>2</v>
@@ -2029,7 +2029,7 @@
         <v>6</v>
       </c>
       <c r="E25" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F25" s="112">
         <v>535198</v>
@@ -2044,7 +2044,7 @@
         <v>2.89</v>
       </c>
       <c r="K25" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L25" s="22"/>
       <c r="M25" s="8"/>
@@ -2054,7 +2054,7 @@
     </row>
     <row r="26" spans="1:27" ht="14.25" customHeight="1">
       <c r="A26" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B26" s="34">
         <v>1</v>
@@ -2064,13 +2064,13 @@
         <v>1</v>
       </c>
       <c r="E26" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F26" s="128">
         <v>545548</v>
       </c>
       <c r="G26" s="137" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H26" s="135">
         <f>B26*J26</f>
@@ -2085,7 +2085,7 @@
         <v>4.99</v>
       </c>
       <c r="L26" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M26" s="8"/>
       <c r="Y26" s="8"/>
@@ -2094,7 +2094,7 @@
     </row>
     <row r="27" spans="1:27" ht="14.25" customHeight="1">
       <c r="A27" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B27" s="36">
         <v>1</v>
@@ -2104,13 +2104,13 @@
         <v>1</v>
       </c>
       <c r="E27" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F27" s="130">
         <v>634078</v>
       </c>
       <c r="G27" s="136" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H27" s="129">
         <f>B27*J27</f>
@@ -2125,13 +2125,13 @@
         <v>1.99</v>
       </c>
       <c r="L27" s="120" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M27" s="8"/>
     </row>
     <row r="28" spans="1:27" ht="15" customHeight="1">
       <c r="A28" s="17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B28" s="34">
         <v>4</v>
@@ -2141,7 +2141,7 @@
         <v>4</v>
       </c>
       <c r="E28" s="141" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F28" s="125"/>
       <c r="G28" s="125"/>
@@ -2153,7 +2153,7 @@
     </row>
     <row r="29" spans="1:27" ht="15" customHeight="1">
       <c r="A29" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B29" s="34">
         <v>4</v>
@@ -2163,7 +2163,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="141" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F29" s="125"/>
       <c r="G29" s="125"/>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="30" spans="1:27" ht="15" customHeight="1">
       <c r="A30" s="126" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B30" s="115">
         <v>4</v>
@@ -2185,7 +2185,7 @@
         <v>4</v>
       </c>
       <c r="E30" s="141" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F30" s="125"/>
       <c r="G30" s="125"/>
@@ -2226,7 +2226,7 @@
     </row>
     <row r="33" spans="1:27" ht="14.25" customHeight="1">
       <c r="A33" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33" s="34"/>
       <c r="C33" s="34"/>
@@ -2245,10 +2245,10 @@
     </row>
     <row r="34" spans="1:27" ht="14.25" customHeight="1">
       <c r="A34" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C34" s="36">
         <v>1</v>
@@ -2257,7 +2257,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F34" s="36"/>
       <c r="G34" s="39"/>
@@ -2275,10 +2275,10 @@
     </row>
     <row r="35" spans="1:27" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A35" s="17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C35" s="34">
         <v>1</v>
@@ -2287,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="E35" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F35" s="36"/>
       <c r="G35" s="39"/>
@@ -2305,10 +2305,10 @@
     </row>
     <row r="36" spans="1:27" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A36" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B36" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C36" s="34">
         <v>2</v>
@@ -2317,7 +2317,7 @@
         <v>4</v>
       </c>
       <c r="E36" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F36" s="36"/>
       <c r="G36" s="39"/>
@@ -2335,10 +2335,10 @@
     </row>
     <row r="37" spans="1:27" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A37" s="17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C37" s="34">
         <v>1</v>
@@ -2347,7 +2347,7 @@
         <v>1</v>
       </c>
       <c r="E37" s="36" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F37" s="36"/>
       <c r="G37" s="39"/>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="38" spans="1:27" s="112" customFormat="1" ht="14.25" customHeight="1">
       <c r="A38" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B38" s="34">
         <v>1</v>
@@ -2375,7 +2375,7 @@
         <v>2</v>
       </c>
       <c r="E38" s="36" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F38" s="36"/>
       <c r="G38" s="39"/>
@@ -2388,28 +2388,28 @@
         <v>49.9</v>
       </c>
       <c r="K38" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L38" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="M38" s="8"/>
     </row>
     <row r="39" spans="1:27" ht="14.25" customHeight="1">
       <c r="A39" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B39" s="36">
         <v>2</v>
       </c>
       <c r="C39" s="36" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D39" s="36">
         <v>4</v>
       </c>
       <c r="E39" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F39" s="132">
         <v>545412</v>
@@ -2424,10 +2424,10 @@
         <v>4.49</v>
       </c>
       <c r="K39" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L39" s="21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="M39" s="8"/>
       <c r="Y39" s="8"/>
@@ -2436,25 +2436,25 @@
     </row>
     <row r="40" spans="1:27" ht="14.25" customHeight="1">
       <c r="A40" s="17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B40" s="34">
         <v>4</v>
       </c>
       <c r="C40" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D40" s="34">
         <v>4</v>
       </c>
       <c r="E40" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F40" s="132">
         <v>585542</v>
       </c>
       <c r="G40" s="132" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H40" s="135">
         <f>B40*J40</f>
@@ -2469,7 +2469,7 @@
         <v>23.96</v>
       </c>
       <c r="L40" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="M40" s="8"/>
       <c r="Y40" s="8"/>
@@ -2478,19 +2478,19 @@
     </row>
     <row r="41" spans="1:27" ht="14.25" customHeight="1">
       <c r="A41" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B41" s="34">
         <v>2</v>
       </c>
       <c r="C41" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D41" s="34">
         <v>6</v>
       </c>
       <c r="E41" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F41" s="132">
         <v>535198</v>
@@ -2505,26 +2505,26 @@
         <v>2.89</v>
       </c>
       <c r="K41" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="L41" s="22"/>
       <c r="M41" s="8"/>
     </row>
     <row r="42" spans="1:27" ht="14.25" customHeight="1">
       <c r="A42" s="17" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B42" s="34">
         <v>2</v>
       </c>
       <c r="C42" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D42" s="34">
         <v>2</v>
       </c>
       <c r="E42" s="36" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F42" s="138">
         <v>634058</v>
@@ -2543,25 +2543,25 @@
         <v>1.98</v>
       </c>
       <c r="L42" s="23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="M42" s="8"/>
     </row>
     <row r="43" spans="1:27" ht="14.25" customHeight="1">
       <c r="A43" s="17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B43" s="34">
         <v>12</v>
       </c>
       <c r="C43" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D43" s="34">
         <v>16</v>
       </c>
       <c r="E43" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F43" s="34"/>
       <c r="G43" s="38"/>
@@ -2574,19 +2574,19 @@
     </row>
     <row r="44" spans="1:27" ht="14.25" customHeight="1">
       <c r="A44" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="34">
         <v>4</v>
       </c>
       <c r="C44" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D44" s="34">
         <v>4</v>
       </c>
       <c r="E44" s="34" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F44" s="117"/>
       <c r="G44" s="38"/>
@@ -2599,25 +2599,25 @@
     </row>
     <row r="45" spans="1:27" ht="14.25" customHeight="1">
       <c r="A45" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B45" s="34">
         <v>1</v>
       </c>
       <c r="C45" s="34" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D45" s="34">
         <v>1</v>
       </c>
       <c r="E45" s="113" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F45" s="133" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G45" s="131" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H45" s="19">
         <v>1</v>
@@ -2632,13 +2632,13 @@
         <v>1</v>
       </c>
       <c r="L45" s="23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M45" s="8"/>
     </row>
     <row r="46" spans="1:27" ht="14.25" customHeight="1">
       <c r="A46" s="17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B46" s="34">
         <v>1</v>
@@ -2648,7 +2648,7 @@
         <v>1</v>
       </c>
       <c r="E46" s="113" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F46" s="133">
         <v>633104</v>
@@ -2668,7 +2668,7 @@
         <v>1.69</v>
       </c>
       <c r="L46" s="23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="M46" s="8"/>
     </row>
